--- a/Tests/Data/Part.xlsx
+++ b/Tests/Data/Part.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D2376A-2AAB-4895-9AA6-4A414EEA2A51}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="3960" yWindow="1620" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="2" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,12 +72,34 @@
   <si>
     <t>cc</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ccc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a2</t>
+  </si>
+  <si>
+    <t>a3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -215,6 +238,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -250,6 +290,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -425,11 +482,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -452,23 +509,56 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
         <v>3</v>
       </c>
     </row>
